--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_08.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_08.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\OPEN DATA\Datasets\1. Datasets&amp; BusinessDoc_Manual\Ferry\3. Ferry Ridership\SI Ferry Ridership by Month\2020 SIF Ridership\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B84F4C-0F0C-4D62-A4C2-7C5B5A114800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
+    <sheet name="TOTALS" sheetId="1" r:id="rId1"/>
     <sheet name="WEEKDAY-WEEKEND" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>DAY</t>
   </si>
@@ -71,11 +80,14 @@
   <si>
     <t>Difference</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,12 +450,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -473,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,19 +762,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -774,7 +783,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="29">
         <v>44044</v>
@@ -785,13 +794,13 @@
       <c r="G4" s="31"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -806,7 +815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="str">
         <f>CHOOSE(WEEKDAY(D6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
@@ -830,7 +839,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="6" t="str">
         <f t="shared" ref="C7:C36" si="0">CHOOSE(WEEKDAY(D7),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
@@ -854,7 +863,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -878,7 +887,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -902,7 +911,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -926,7 +935,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -950,7 +959,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -974,7 +983,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -998,7 +1007,7 @@
         <v>-1174</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1022,7 +1031,7 @@
         <v>-490</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1046,7 +1055,7 @@
         <v>-1391</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1070,7 +1079,7 @@
         <v>-1359</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1094,7 +1103,7 @@
         <v>-1351</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1118,7 +1127,7 @@
         <v>-811</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1142,7 +1151,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1166,7 +1175,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1190,7 +1199,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1214,7 +1223,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1238,7 +1247,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1262,7 +1271,7 @@
         <v>-626</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1286,7 +1295,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1310,7 +1319,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1334,7 +1343,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1358,7 +1367,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1382,7 +1391,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1406,7 +1415,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1430,7 +1439,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1454,7 +1463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1478,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1502,7 +1511,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1526,7 +1535,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1550,12 +1559,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
-      <c r="C37" s="32" t="s">
+      <c r="D37" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="33"/>
       <c r="E37" s="10">
         <f>SUM(E6:E36)</f>
         <v>304150</v>
@@ -1570,7 +1578,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1579,7 +1587,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1588,7 +1596,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1597,21 +1605,21 @@
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="12">
         <f>G37</f>
         <v>593432</v>
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1621,9 +1629,8 @@
       <c r="H42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C41:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1635,20 +1642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1657,18 +1664,18 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="2:14" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -1695,7 +1702,7 @@
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="str">
         <f>CHOOSE(WEEKDAY(D5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
@@ -1725,7 +1732,7 @@
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="str">
         <f>CHOOSE(WEEKDAY(D6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
@@ -1755,7 +1762,7 @@
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="str">
         <f>CHOOSE(WEEKDAY(D7),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
@@ -1785,7 +1792,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="str">
         <f t="shared" ref="C8:C25" si="2">CHOOSE(WEEKDAY(D8),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
@@ -1815,7 +1822,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1845,7 +1852,7 @@
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1875,7 +1882,7 @@
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1905,7 +1912,7 @@
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1935,7 +1942,7 @@
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1965,7 +1972,7 @@
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1995,7 +2002,7 @@
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2025,7 +2032,7 @@
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2055,7 +2062,7 @@
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2085,7 +2092,7 @@
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2115,7 +2122,7 @@
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2145,7 +2152,7 @@
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2175,7 +2182,7 @@
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2205,7 +2212,7 @@
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2235,7 +2242,7 @@
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2265,7 +2272,7 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2295,7 +2302,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2325,12 +2332,12 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="17">
         <f>SUM(E5:E25)</f>
         <v>223239</v>
@@ -2351,7 +2358,7 @@
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
     </row>
-    <row r="27" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2366,14 +2373,14 @@
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="19">
         <f>G26</f>
         <v>438199</v>
@@ -2386,14 +2393,14 @@
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="20">
         <f>AVERAGE(G5:G25)</f>
         <v>20866.619047619046</v>
@@ -2406,7 +2413,7 @@
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2421,7 +2428,7 @@
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2436,7 +2443,7 @@
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
     </row>
-    <row r="32" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2451,15 +2458,15 @@
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
     </row>
-    <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="13"/>
       <c r="I33" s="26"/>
       <c r="J33" s="27"/>
@@ -2468,7 +2475,7 @@
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
     </row>
-    <row r="34" spans="2:14" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="21" t="s">
         <v>0</v>
@@ -2493,7 +2500,7 @@
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="str">
         <f t="shared" ref="C35:C44" si="3">CHOOSE(WEEKDAY(D35),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
@@ -2523,7 +2530,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
     </row>
-    <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2553,7 +2560,7 @@
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2583,7 +2590,7 @@
       <c r="M37" s="26"/>
       <c r="N37" s="26"/>
     </row>
-    <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2613,7 +2620,7 @@
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2643,7 +2650,7 @@
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2673,7 +2680,7 @@
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
     </row>
-    <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="13"/>
       <c r="C41" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2703,7 +2710,7 @@
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
     </row>
-    <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2733,7 +2740,7 @@
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
     </row>
-    <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2757,7 +2764,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="str">
         <f t="shared" si="3"/>
@@ -2781,12 +2788,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="13"/>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="40"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="17">
         <f>SUM(E35:E44)</f>
         <v>80911</v>
@@ -2801,7 +2808,7 @@
       </c>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="13"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -2810,35 +2817,35 @@
       <c r="G46" s="23"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="13"/>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="24">
         <f>AVERAGE(G35,G43,G37,G39,G41)</f>
         <v>16613</v>
       </c>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="13"/>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="20">
         <f>AVERAGE(G36,G38,G40,G42,G44)</f>
         <v>14433.6</v>
       </c>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -2847,7 +2854,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -2856,7 +2863,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -2865,7 +2872,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -2874,7 +2881,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -2883,7 +2890,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -2892,7 +2899,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -2901,7 +2908,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -2910,7 +2917,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -2919,7 +2926,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -2928,7 +2935,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2937,7 +2944,7 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -2946,7 +2953,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -2955,7 +2962,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -2964,7 +2971,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -2973,7 +2980,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -2982,7 +2989,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -2991,7 +2998,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -3000,7 +3007,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -3009,7 +3016,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -3018,7 +3025,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -3027,7 +3034,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -3036,7 +3043,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -3045,7 +3052,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -3054,7 +3061,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -3063,7 +3070,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -3072,7 +3079,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -3081,7 +3088,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -3090,7 +3097,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -3099,7 +3106,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -3108,7 +3115,7 @@
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
     </row>
-    <row r="79" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -3117,7 +3124,7 @@
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -3126,7 +3133,7 @@
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -3135,7 +3142,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
     </row>
-    <row r="82" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -3144,7 +3151,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
     </row>
-    <row r="83" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -3153,7 +3160,7 @@
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
     </row>
-    <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -3162,7 +3169,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
     </row>
-    <row r="85" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -3171,7 +3178,7 @@
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
     </row>
-    <row r="86" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -3180,7 +3187,7 @@
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
     </row>
-    <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -3189,7 +3196,7 @@
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
     </row>
-    <row r="88" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -3198,7 +3205,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -3207,7 +3214,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
     </row>
-    <row r="90" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -3216,7 +3223,7 @@
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -3225,7 +3232,7 @@
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
     </row>
-    <row r="92" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -3234,7 +3241,7 @@
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
     </row>
-    <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -3243,11 +3250,11 @@
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
     </row>
-    <row r="94" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="13"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="13"/>
       <c r="H95" s="13"/>
     </row>
@@ -3270,6 +3277,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056AE8379B00F7343AA85C9CCF3ABC79C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ed5a08c4ea4bafe7608c7a0bbf74949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="670d3029-f9df-404e-98fc-7004dcdec636" xmlns:ns3="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f6b6dc1f77d7f192bee01dd38b44bce" ns2:_="" ns3:_="">
     <xsd:import namespace="670d3029-f9df-404e-98fc-7004dcdec636"/>
@@ -3448,29 +3470,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EB74D34-98A7-45EE-864D-84E1DDEB2932}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CB240F-7250-4854-8E17-F9ADC78B2A0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D04F789-D73C-476F-B5D9-C9EEC13E66AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D04F789-D73C-476F-B5D9-C9EEC13E66AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CB240F-7250-4854-8E17-F9ADC78B2A0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EB74D34-98A7-45EE-864D-84E1DDEB2932}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>